--- a/Timing_Results/Blobs_smp20000_fea30_cls8.xlsx
+++ b/Timing_Results/Blobs_smp20000_fea30_cls8.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desnow/study/Harvard_course/CS205/CS205_final_project/Timing_Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason/Documents/S17-project/205Final/CS205_final_project/Timing_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OpenMP" sheetId="1" r:id="rId1"/>
     <sheet name="MPI" sheetId="3" r:id="rId2"/>
-    <sheet name="hybrid" sheetId="2" r:id="rId3"/>
+    <sheet name="Cuda" sheetId="4" r:id="rId3"/>
+    <sheet name="hybrid" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>IO</t>
   </si>
@@ -44,6 +48,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>t_cuda</t>
+  </si>
+  <si>
+    <t>Cuda IO</t>
   </si>
 </sst>
 </file>
@@ -369,7 +379,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,6 +677,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>783.19200000000001</v>
+      </c>
+      <c r="C2">
+        <v>356.685</v>
+      </c>
+      <c r="D2">
+        <v>119.57899999999999</v>
+      </c>
+      <c r="E2">
+        <v>392.04599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>636.06600000000003</v>
+      </c>
+      <c r="C3">
+        <v>202.417</v>
+      </c>
+      <c r="D3">
+        <v>132.81800000000001</v>
+      </c>
+      <c r="E3">
+        <v>294.90300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>547.73099999999999</v>
+      </c>
+      <c r="C4">
+        <v>108.101</v>
+      </c>
+      <c r="D4">
+        <v>138.31200000000001</v>
+      </c>
+      <c r="E4">
+        <v>295.27600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>541.21600000000001</v>
+      </c>
+      <c r="C5">
+        <v>69.130899999999997</v>
+      </c>
+      <c r="D5">
+        <v>169.7</v>
+      </c>
+      <c r="E5">
+        <v>296.22699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>511.78800000000001</v>
+      </c>
+      <c r="C6">
+        <v>38.125799999999998</v>
+      </c>
+      <c r="D6">
+        <v>171.49</v>
+      </c>
+      <c r="E6">
+        <v>295.94400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2496.9899999999998</v>
+      </c>
+      <c r="C7">
+        <v>245.16499999999999</v>
+      </c>
+      <c r="D7">
+        <v>1894.4010000000001</v>
+      </c>
+      <c r="E7">
+        <v>322.41399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2437.4899999999998</v>
+      </c>
+      <c r="C8">
+        <v>162.15100000000001</v>
+      </c>
+      <c r="D8">
+        <v>1919.9490000000001</v>
+      </c>
+      <c r="E8">
+        <v>321.02300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
